--- a/BetScrapper/.xlsx
+++ b/BetScrapper/.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="435">
   <si>
     <t>Fecha y hora 2022-05-20 / 16:23:46</t>
   </si>
@@ -116,6 +116,21 @@
     <t>Fecha y hora 2022-05-26 / 14:49:12</t>
   </si>
   <si>
+    <t>Fecha y hora 2022-05-26 / 14:49:25</t>
+  </si>
+  <si>
+    <t>Fecha y hora 2022-05-26 / 15:26:45</t>
+  </si>
+  <si>
+    <t>Fecha y hora 2022-05-26 / 15:27:01</t>
+  </si>
+  <si>
+    <t>Fecha y hora 2022-05-26 / 15:27:19</t>
+  </si>
+  <si>
+    <t>Fecha y hora 2022-05-26 / 15:27:34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estado: </t>
   </si>
   <si>
@@ -158,6 +173,18 @@
     <t>Marcador Exacto 2:0; 5,25</t>
   </si>
   <si>
+    <t>Marcador Exacto 3:2; 1,14</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:1; 13,25</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:0; 2,40</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:0; 1,44</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:1; 5,25</t>
   </si>
   <si>
@@ -197,6 +224,21 @@
     <t>Marcador Exacto 2:2; 50,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 3:3; 5,75</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:1; 3,10</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:3; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:1; 3,60</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:0; 4,33</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:1; 4,55</t>
   </si>
   <si>
@@ -230,7 +272,19 @@
     <t>Marcador Exacto 0:1; 3,45</t>
   </si>
   <si>
-    <t>Marcador Exacto 2:3; 300,00</t>
+    <t>Marcador Exacto 3:4; 120,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:1; 1,70</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:1; 6,25</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:2; 10,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:1; 3,75</t>
   </si>
   <si>
     <t>Marcador Exacto 3:1; 56,00</t>
@@ -272,6 +326,18 @@
     <t>Marcador Exacto 2:1; 11,25</t>
   </si>
   <si>
+    <t>Marcador Exacto 4:2; 4,90</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:1; 110,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:0; 3,60</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:1; 10,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 2:2; 10,75</t>
   </si>
   <si>
@@ -299,6 +365,21 @@
     <t>Marcador Exacto 3:3; 230,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 4:4; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:2; 44,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:4; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:3; 34,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:2; 26,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:2; 4,40</t>
   </si>
   <si>
@@ -311,9 +392,6 @@
     <t>Marcador Exacto 0:2; 15,50</t>
   </si>
   <si>
-    <t>Marcador Exacto 4:4; 300,00</t>
-  </si>
-  <si>
     <t>Marcador Exacto 0:2; 12,25</t>
   </si>
   <si>
@@ -329,7 +407,19 @@
     <t>Marcador Exacto 0:2; 5,00</t>
   </si>
   <si>
-    <t>Marcador Exacto 2:4; 300,00</t>
+    <t>Marcador Exacto 3:5; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:2; 4,10</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:0; 2,75</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:2; 15,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:2; 14,00</t>
   </si>
   <si>
     <t>Marcador Exacto 3:2; 54,00</t>
@@ -365,6 +455,15 @@
     <t>Marcador Exacto 3:0; 3,40</t>
   </si>
   <si>
+    <t>Marcador Exacto 4:3; 43,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:1; 6,50</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:1; 26,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 3:3; 110,00</t>
   </si>
   <si>
@@ -401,6 +500,18 @@
     <t>Marcador Exacto 3:3; 130,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 5:5; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:4; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:3; 29,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:3; 29,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:3; 41,00</t>
   </si>
   <si>
@@ -428,7 +539,19 @@
     <t>Marcador Exacto 1:2; 5,75</t>
   </si>
   <si>
-    <t>Marcador Exacto 3:4; 300,00</t>
+    <t>Marcador Exacto 4:5; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:2; 9,50</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:1; 7,75</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 4:0; 10,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 3:0; 15,00</t>
   </si>
   <si>
     <t>Marcador Exacto 3:2; 20,00</t>
@@ -458,7 +581,13 @@
     <t>Marcador Exacto 3:1; 7,25</t>
   </si>
   <si>
-    <t>Marcador Exacto 2:3; 29,00</t>
+    <t>Marcador Exacto 5:2; 45,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:5; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 4:2; 34,00</t>
   </si>
   <si>
     <t>Marcador Exacto 2:3; 40,00</t>
@@ -494,7 +623,13 @@
     <t>Marcador Exacto 2:3; 42,00</t>
   </si>
   <si>
-    <t>Marcador Exacto 2:5; 300,00</t>
+    <t>Marcador Exacto 4:6; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:3; 290,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 4:1; 15,00</t>
   </si>
   <si>
     <t>Marcador Exacto 3:1; 10,50</t>
@@ -527,6 +662,15 @@
     <t>Marcador Exacto 3:2; 33,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 5:4; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:6; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 5:0; 29,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:3; 8,50</t>
   </si>
   <si>
@@ -557,10 +701,13 @@
     <t>Marcador Exacto 0:3; 15,50</t>
   </si>
   <si>
-    <t>Marcador Exacto 3:5; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:1; 7,75</t>
+    <t>Marcador Exacto 3:6; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:3; 24,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 5:1; 34,00</t>
   </si>
   <si>
     <t>Marcador Exacto 2:3; 92,00</t>
@@ -593,6 +740,9 @@
     <t>Marcador Exacto 4:0; 4,30</t>
   </si>
   <si>
+    <t>Marcador Exacto 4:2; 125,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:3; 11,00</t>
   </si>
   <si>
@@ -626,7 +776,10 @@
     <t>Marcador Exacto 1:3; 18,00</t>
   </si>
   <si>
-    <t>Marcador Exacto 2:6; 300,00</t>
+    <t>Marcador Exacto 5:6; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:3; 60,00</t>
   </si>
   <si>
     <t>Marcador Exacto 4:0; 20,00</t>
@@ -680,6 +833,12 @@
     <t>Marcador Exacto 4:2; 42,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 3:7; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 6:1; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 5:0; 49,00</t>
   </si>
   <si>
@@ -701,6 +860,9 @@
     <t>Marcador Exacto 4:1; 9,25</t>
   </si>
   <si>
+    <t>Marcador Exacto 6:3; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:4; 25,00</t>
   </si>
   <si>
@@ -725,7 +887,13 @@
     <t>Marcador Exacto 0:4; 76,00</t>
   </si>
   <si>
-    <t>Marcador Exacto 6:1; 300,00</t>
+    <t>Marcador Exacto 4:7; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:4; 230,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 7:1; 300,00</t>
   </si>
   <si>
     <t>Marcador Exacto 5:1; 48,00</t>
@@ -746,6 +914,12 @@
     <t>Marcador Exacto 5:1; 16,75</t>
   </si>
   <si>
+    <t>Marcador Exacto 6:5; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 7:0; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:4; 33,00</t>
   </si>
   <si>
@@ -770,6 +944,12 @@
     <t>Marcador Exacto 5:2; 76,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 3:8; 300,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 8:0; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 2:4; 86,00</t>
   </si>
   <si>
@@ -806,6 +986,9 @@
     <t>Marcador Exacto 5:0; 7,50</t>
   </si>
   <si>
+    <t>Marcador Exacto 6:4; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:5; 96,00</t>
   </si>
   <si>
@@ -824,6 +1007,9 @@
     <t>Marcador Exacto 6:0; 18,75</t>
   </si>
   <si>
+    <t>Marcador Exacto 7:2; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 5:1; 32,00</t>
   </si>
   <si>
@@ -833,6 +1019,9 @@
     <t>Marcador Exacto 6:1; 43,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 7:3; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:5; 125,00</t>
   </si>
   <si>
@@ -851,6 +1040,9 @@
     <t>Marcador Exacto 6:2; 195,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 7:4; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 1:0; 2,90</t>
   </si>
   <si>
@@ -863,6 +1055,9 @@
     <t>Marcador Exacto 7:1; 135,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 8:3; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:0; 2,20</t>
   </si>
   <si>
@@ -878,18 +1073,21 @@
     <t>Marcador Exacto 7:0; 60,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 8:2; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 0:1; 5,50</t>
   </si>
   <si>
-    <t>Marcador Exacto 7:0; 300,00</t>
-  </si>
-  <si>
     <t>Marcador Exacto 3:4; 240,00</t>
   </si>
   <si>
     <t>Marcador Exacto 8:0; 230,00</t>
   </si>
   <si>
+    <t>Marcador Exacto 9:2; 300,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto 2:0; 7,75</t>
   </si>
   <si>
@@ -902,6 +1100,9 @@
     <t>Marcador Exacto otro; 3,70</t>
   </si>
   <si>
+    <t>Marcador Exacto otro; 78,00</t>
+  </si>
+  <si>
     <t>Marcador Exacto otro; 36,00</t>
   </si>
   <si>
@@ -1094,82 +1295,31 @@
     <t>Marcador Exacto 0:3; 49,00</t>
   </si>
   <si>
-    <t>Fecha y hora 2022-05-26 / 14:49:25</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:2; 1,14</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:3; 5,75</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:4; 120,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 4:2; 4,90</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 4:3; 43,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 5:5; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 4:5; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 5:2; 45,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 4:6; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 5:4; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:6; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 5:6; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:7; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 6:3; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 4:7; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 6:5; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 3:8; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 6:4; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 7:2; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 7:3; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 7:4; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 8:3; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 8:2; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto 9:2; 300,00</t>
-  </si>
-  <si>
-    <t>Marcador Exacto otro; 78,00</t>
+    <t>Fecha y hora 2022-05-26 / 15:27:52</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:0; 1,73</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:1; 3,50</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:0; 13,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:1; 8,50</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:2; 12,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 2:2; 34,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 1:2; 21,00</t>
+  </si>
+  <si>
+    <t>Marcador Exacto 0:3; 29,00</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1655,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,7 +1663,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:39">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1614,156 +1764,186 @@
         <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T3"/>
       <c r="U3"/>
@@ -1772,1755 +1952,2012 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AA3"/>
       <c r="AB3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3"/>
       <c r="AH3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AC4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AH4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>69</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="AB5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
         <v>71</v>
       </c>
       <c r="AH5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>85</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+        <v>103</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="S7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="AB7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AH7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+        <v>116</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="AB8" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="AC8" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="AH8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" t="s">
+        <v>141</v>
+      </c>
+      <c r="M9" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" t="s">
+        <v>183</v>
+      </c>
+      <c r="S12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL12"/>
+      <c r="AM12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" t="s">
-        <v>124</v>
-      </c>
-      <c r="S10" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="S11" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" t="s">
-        <v>143</v>
-      </c>
-      <c r="K12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" t="s">
-        <v>142</v>
-      </c>
-      <c r="O12" t="s">
-        <v>142</v>
-      </c>
-      <c r="S12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J13" t="s">
-        <v>154</v>
-      </c>
-      <c r="K13" t="s">
-        <v>155</v>
-      </c>
-      <c r="M13" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13" t="s">
-        <v>155</v>
-      </c>
-      <c r="S13" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="M14" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="S14" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="Z14" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="AB14" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="AC14" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="AH14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <v>215</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM14"/>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="M15" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="S15" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="Z15" t="s">
         <v>71</v>
       </c>
       <c r="AB15" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="AC15" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AH15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+        <v>228</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" t="s">
+        <v>236</v>
+      </c>
+      <c r="S16" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK16"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="M17" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" t="s">
+        <v>250</v>
+      </c>
+      <c r="S17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>253</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" t="s">
+        <v>224</v>
+      </c>
+      <c r="M18" t="s">
+        <v>261</v>
+      </c>
+      <c r="O18" t="s">
+        <v>261</v>
+      </c>
+      <c r="S18" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>182</v>
       </c>
-      <c r="E16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" t="s">
-        <v>186</v>
-      </c>
-      <c r="K16" t="s">
-        <v>165</v>
-      </c>
-      <c r="M16" t="s">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s">
-        <v>187</v>
-      </c>
-      <c r="S16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z16" t="s">
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" t="s">
+        <v>234</v>
+      </c>
+      <c r="M19" t="s">
+        <v>269</v>
+      </c>
+      <c r="O19" t="s">
+        <v>269</v>
+      </c>
+      <c r="S19" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" t="s">
+        <v>277</v>
+      </c>
+      <c r="J20" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O20" t="s">
+        <v>279</v>
+      </c>
+      <c r="S20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" t="s">
         <v>189</v>
       </c>
-      <c r="AB16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17" t="s">
-        <v>200</v>
-      </c>
-      <c r="S17" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>203</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" t="s">
-        <v>207</v>
-      </c>
-      <c r="F18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21" t="s">
+        <v>286</v>
+      </c>
+      <c r="K21" t="s">
+        <v>259</v>
+      </c>
+      <c r="M21" t="s">
+        <v>259</v>
+      </c>
+      <c r="O21" t="s">
+        <v>259</v>
+      </c>
+      <c r="S21" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>290</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" t="s">
+        <v>297</v>
+      </c>
+      <c r="K22" t="s">
+        <v>267</v>
+      </c>
+      <c r="M22" t="s">
+        <v>267</v>
+      </c>
+      <c r="O22" t="s">
+        <v>267</v>
+      </c>
+      <c r="S22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z22" t="s">
         <v>208</v>
       </c>
-      <c r="J18" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" t="s">
-        <v>210</v>
-      </c>
-      <c r="O18" t="s">
-        <v>210</v>
-      </c>
-      <c r="S18" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J19" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" t="s">
-        <v>218</v>
-      </c>
-      <c r="O19" t="s">
-        <v>218</v>
-      </c>
-      <c r="S19" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="AB22" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" t="s">
+        <v>277</v>
+      </c>
+      <c r="S23" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z23" t="s">
         <v>222</v>
       </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" t="s">
-        <v>198</v>
-      </c>
-      <c r="M20" t="s">
-        <v>226</v>
-      </c>
-      <c r="O20" t="s">
-        <v>226</v>
-      </c>
-      <c r="S20" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>230</v>
-      </c>
-      <c r="H21" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="AB23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" t="s">
+        <v>315</v>
+      </c>
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" t="s">
+        <v>285</v>
+      </c>
+      <c r="M24" t="s">
+        <v>319</v>
+      </c>
+      <c r="O24" t="s">
+        <v>319</v>
+      </c>
+      <c r="S24" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z24" t="s">
         <v>232</v>
       </c>
-      <c r="K21" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" t="s">
-        <v>208</v>
-      </c>
-      <c r="O21" t="s">
-        <v>208</v>
-      </c>
-      <c r="S21" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" t="s">
-        <v>239</v>
-      </c>
-      <c r="H22" t="s">
-        <v>240</v>
-      </c>
-      <c r="J22" t="s">
-        <v>241</v>
-      </c>
-      <c r="K22" t="s">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s">
-        <v>216</v>
-      </c>
-      <c r="O22" t="s">
-        <v>216</v>
-      </c>
-      <c r="S22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" t="s">
-        <v>246</v>
-      </c>
-      <c r="H23" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" t="s">
-        <v>247</v>
-      </c>
-      <c r="K23" t="s">
-        <v>224</v>
-      </c>
-      <c r="M23" t="s">
-        <v>224</v>
-      </c>
-      <c r="O23" t="s">
-        <v>224</v>
-      </c>
-      <c r="S23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" t="s">
-        <v>257</v>
-      </c>
-      <c r="J24" t="s">
-        <v>258</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" t="s">
-        <v>259</v>
-      </c>
-      <c r="O24" t="s">
-        <v>259</v>
-      </c>
-      <c r="S24" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>183</v>
-      </c>
       <c r="AB24" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="AC24" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="AH24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
+        <v>323</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ24"/>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="M25" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="O25" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="S25" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="Z25" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="AB25" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="AC25" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="AH25" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
+        <v>330</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="F26"/>
       <c r="H26" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="S26" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="Z26" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="AB26" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="AC26" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="AH26" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
+        <v>334</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="K27" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M27" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="O27" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="S27" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="A28" t="s">
         <v>276</v>
       </c>
-      <c r="Z27" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" t="s">
-        <v>223</v>
-      </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="K28" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="S28" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="Z28" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="AB28" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="AC28" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="AH28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
+        <v>346</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="C29" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="S29" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="Z29" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AB29" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="AC29" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="AH29" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34">
+        <v>352</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="H30" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="J30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="AB30" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="AC30" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="AH30" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34">
+        <v>356</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="M31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="O31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="S31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="Z31" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="AB31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AC31" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="AH31" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34">
+        <v>361</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="B32" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="M32" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="O32" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="S32" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="Z32" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="AB32" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="AC32"/>
       <c r="AH32"/>
-    </row>
-    <row r="33" spans="1:34">
+      <c r="AI32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="H33" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="M33" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="O33" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="S33" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="Z33"/>
       <c r="AB33"/>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="AI33"/>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="H34" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="J34" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="K34" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="M34" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="S34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="D35" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="O35" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="S35" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="D36" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="M36" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="O36" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="S36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="C37" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="D37" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="H37" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="K37" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="M37" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="O37" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="S37" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="K38" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="O38" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="S38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="H39"/>
       <c r="J39" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="M39" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="S39" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:34">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="C40" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="D40" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="M40" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="O40" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="S40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="C41" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="K41" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="M41" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="O41" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="S41"/>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43"/>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="M43" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:34">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
       <c r="D44" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="K44" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="O44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
       <c r="D45"/>
       <c r="J45"/>
       <c r="K45"/>
